--- a/model/results/mix1_ggpos_h2pos/v_abated.xlsx
+++ b/model/results/mix1_ggpos_h2pos/v_abated.xlsx
@@ -629,7 +629,7 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>1458079.479293853</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>2023</v>
       </c>
       <c r="B4" t="n">
-        <v>1458079.479293853</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>2024</v>
       </c>
       <c r="B5" t="n">
-        <v>1458079.479293853</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999981</v>
       </c>
     </row>
     <row r="6">
@@ -851,7 +851,7 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>1458079.479293853</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -872,16 +872,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3151247.68088944</v>
+        <v>2746514.81933741</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>977407.2000000001</v>
+        <v>977407.1999999889</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2588560.000000005</v>
+        <v>2588560.000000028</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999981</v>
       </c>
     </row>
     <row r="7">
@@ -925,7 +925,7 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>1458079.479293853</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1255386.666666667</v>
+        <v>1639640</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4534666.666666678</v>
+        <v>4534666.666666667</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>989043.0000000001</v>
+        <v>989042.9999999888</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999981</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +999,7 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>1458079.479293853</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2510773.333333333</v>
+        <v>2895026.666666667</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4534666.666666678</v>
+        <v>4534666.666666667</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1000678.8</v>
+        <v>1000678.799999989</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999981</v>
       </c>
     </row>
     <row r="9">
@@ -1073,7 +1073,7 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>1458079.479293853</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2510773.333333333</v>
+        <v>2895026.666666667</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1094,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4534666.666666678</v>
+        <v>4534666.666666667</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1012314.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1279938</v>
+        <v>1279937.999999973</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999981</v>
       </c>
     </row>
     <row r="10">
@@ -1147,7 +1147,7 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>1374582.307692308</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3766160</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4534666.666666678</v>
+        <v>4534666.666666667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>1023950.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1279938</v>
+        <v>1279937.999999973</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999981</v>
       </c>
     </row>
     <row r="11">
@@ -1242,10 +1242,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4534666.666666678</v>
+        <v>4534666.666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>1047222</v>
       </c>
       <c r="M11" t="n">
-        <v>1279938</v>
+        <v>1279937.999999973</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2588560</v>
+        <v>2588560.000000002</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999981</v>
       </c>
     </row>
     <row r="12">
@@ -1316,10 +1316,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4534666.666666678</v>
+        <v>4534666.666666667</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>1047222</v>
       </c>
       <c r="M12" t="n">
-        <v>1279938</v>
+        <v>1279937.999999973</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999981</v>
       </c>
     </row>
     <row r="13">
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4150413.333333342</v>
+        <v>4150413.333333333</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4534666.666666678</v>
+        <v>4534666.666666667</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>1047222</v>
       </c>
       <c r="M13" t="n">
-        <v>1279938</v>
+        <v>1279937.999999973</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2588560</v>
+        <v>2588560.000000002</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999981</v>
       </c>
     </row>
     <row r="14">
@@ -1443,7 +1443,7 @@
         <v>2033</v>
       </c>
       <c r="B14" t="n">
-        <v>1341329.615384614</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>4150413.33333334</v>
+        <v>4150413.333333333</v>
       </c>
       <c r="G14" t="n">
-        <v>1.15245195067266e-08</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4534666.666666678</v>
+        <v>4534666.666666667</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>1047222</v>
       </c>
       <c r="M14" t="n">
-        <v>1279938</v>
+        <v>1279937.999999973</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2588560</v>
+        <v>2588560.000000002</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999981</v>
       </c>
     </row>
     <row r="15">
@@ -1517,7 +1517,7 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>1341329.615384614</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4150413.333333334</v>
+        <v>4150413.333333333</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1538,19 +1538,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4534666.666666688</v>
+        <v>4534666.666666667</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-6.59147170089364e-09</v>
       </c>
       <c r="L15" t="n">
         <v>1047222</v>
       </c>
       <c r="M15" t="n">
-        <v>1279938</v>
+        <v>1279937.999999973</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999981</v>
       </c>
     </row>
     <row r="16">
@@ -1591,7 +1591,7 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>1308076.923076925</v>
+        <v>1217665.995981633</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1603,28 +1603,28 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4534666.666666667</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>869373.1666666624</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4534666.666666675</v>
+        <v>4221242.119403011</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-3.06374549403714e-09</v>
       </c>
       <c r="L16" t="n">
         <v>1047222</v>
       </c>
       <c r="M16" t="n">
-        <v>1279938</v>
+        <v>1279937.999999969</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2588560</v>
+        <v>2588560.000000002</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999981</v>
       </c>
     </row>
     <row r="17">
@@ -1665,7 +1665,7 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>1308076.923076922</v>
+        <v>1217665.995981633</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1677,19 +1677,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4534666.666666667</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>869373.1666666623</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4534666.666666676</v>
+        <v>4221242.119402986</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>1047222</v>
       </c>
       <c r="M17" t="n">
-        <v>1279938</v>
+        <v>1279937.999999966</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2588560</v>
+        <v>2588560.000000002</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999981</v>
       </c>
     </row>
     <row r="18">
@@ -1739,7 +1739,7 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>1308076.923076922</v>
+        <v>1217665.995981623</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1751,19 +1751,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4534666.666666671</v>
+        <v>4150413.333333367</v>
       </c>
       <c r="G18" t="n">
-        <v>8.017057048157636e-09</v>
+        <v>869373.1666666633</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4534666.666666664</v>
+        <v>4221242.119403036</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>1047222</v>
       </c>
       <c r="M18" t="n">
-        <v>1279938</v>
+        <v>1279937.999999966</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2588560</v>
+        <v>2588560.000000002</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999981</v>
       </c>
     </row>
     <row r="19">
@@ -1813,7 +1813,7 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>1308076.923076922</v>
+        <v>1217665.995981631</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1825,19 +1825,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4534666.66666666</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>869373.1666666617</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>4534666.666666684</v>
+        <v>4221242.119403041</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>1047222</v>
       </c>
       <c r="M19" t="n">
-        <v>1279938</v>
+        <v>1279937.999999966</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2588560</v>
+        <v>2588560.000000002</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999981</v>
       </c>
     </row>
     <row r="20">
@@ -1887,7 +1887,7 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>1308076.923076922</v>
+        <v>1217665.99598164</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1899,28 +1899,28 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>4534666.666666663</v>
+        <v>4150413.33333331</v>
       </c>
       <c r="G20" t="n">
-        <v>1.503198196529557e-08</v>
+        <v>869373.1666666615</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4534666.66666666</v>
+        <v>4221242.119403026</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-6.59147170089364e-09</v>
       </c>
       <c r="L20" t="n">
         <v>1047222</v>
       </c>
       <c r="M20" t="n">
-        <v>1279938</v>
+        <v>1279937.999999973</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2588560</v>
+        <v>2588560.000000002</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999981</v>
       </c>
     </row>
     <row r="21">
@@ -1961,7 +1961,7 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>1308076.923076922</v>
+        <v>1217665.995981625</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>4534666.66666666</v>
+        <v>4150413.333333343</v>
       </c>
       <c r="G21" t="n">
-        <v>1.503198196529557e-08</v>
+        <v>869373.1666666613</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>4534666.666666661</v>
+        <v>4221242.119403049</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3.428727889844569e-08</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>1047222</v>
       </c>
       <c r="M21" t="n">
-        <v>1279938</v>
+        <v>1279937.999999966</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>2588560</v>
+        <v>2588560.000000002</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999981</v>
       </c>
     </row>
   </sheetData>
